--- a/Tabelas/TB_comparativo_preco_cafe_por_kg.xlsx
+++ b/Tabelas/TB_comparativo_preco_cafe_por_kg.xlsx
@@ -1,43 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>preco_reais_robusta</t>
+  </si>
+  <si>
+    <t>preco_kg_robusta</t>
+  </si>
+  <si>
+    <t>preco_reais_arabica</t>
+  </si>
+  <si>
+    <t>preco_kg_arabica</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +74,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +138,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +179,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +267,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +323,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +332,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +341,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +349,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +381,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +394,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,149 +417,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ano</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>preco_reais_robusta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>preco_kg_robusta</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>preco_reais_arabica</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>preco_kg_arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>2020</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>358.98</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>5.98</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>542.96</v>
       </c>
-      <c r="E2" t="n">
-        <v>9.050000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2" s="4">
+        <v>9.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>2021</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>590.13</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>9.84</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>962.17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>16.04</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>2022</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>730.47</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>12.17</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>1260.96</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>21.02</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>2023</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>671.58</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>11.19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>953.16</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>15.89</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>2024</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>1225.21</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>20.42</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>1369.19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>22.82</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>2025</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>1931.04</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>32.18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>2502.56</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>41.71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tabelas/TB_comparativo_preco_cafe_por_kg.xlsx
+++ b/Tabelas/TB_comparativo_preco_cafe_por_kg.xlsx
@@ -1,71 +1,449 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>ano</t>
+    <t>Ano</t>
   </si>
   <si>
-    <t>preco_reais_robusta</t>
+    <t>Café Robusta 60 kg</t>
   </si>
   <si>
-    <t>preco_kg_robusta</t>
+    <t>Café Robusta 1 kg</t>
   </si>
   <si>
-    <t>preco_reais_arabica</t>
+    <t>Café Arábica 60 kg</t>
   </si>
   <si>
-    <t>preco_kg_arabica</t>
+    <t>Café Arábica 1 kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -75,16 +453,82 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -92,42 +536,315 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -138,10 +855,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -179,71 +896,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -271,7 +988,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -294,11 +1011,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -307,13 +1024,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -323,7 +1040,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -332,7 +1049,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,7 +1058,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -349,10 +1066,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -412,148 +1129,150 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="6">
         <v>2020</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>358.98</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>5.98</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>542.96</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>9.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A3" s="6">
         <v>2021</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>590.13</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>9.84</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>962.17</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>16.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row r="4" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A4" s="6">
         <v>2022</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>730.47</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>12.17</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>1260.96</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>21.02</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row r="5" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A5" s="6">
         <v>2023</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>671.58</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>11.19</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>953.16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>15.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+    <row r="6" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A6" s="6">
         <v>2024</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>1225.21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>20.42</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>1369.19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>22.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    <row r="7" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A7" s="8">
         <v>2025</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>1931.04</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>32.18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>2502.56</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>41.71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>